--- a/assets/DYZEN_CAPITAL_OS_AI_LIVE_CORE_READY.xlsx
+++ b/assets/DYZEN_CAPITAL_OS_AI_LIVE_CORE_READY.xlsx
@@ -69,13 +69,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LIVE_MACRO_RISK_GATE" sheetId="60" state="visible" r:id="rId60"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LIVE_STRATEGY_SELECTOR" sheetId="61" state="visible" r:id="rId61"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AI_MASTER_LIVE_DECISION" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONFIG_CORE" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RISK_ENGINE" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="POSITION_ENGINE" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TP_ENGINE" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KILL_SWITCH" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TRADE_FIREWALL" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AUTO_WIRE_MAP" sheetId="69" state="visible" r:id="rId69"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41650,6 +41643,9 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2">
         <f>IF(OR(A2="CONTRACTION",B2="HIGH_RISK",C2="REDUCE_EXPOSURE"),"BLOCK","ALLOW")</f>
         <v/>
@@ -41702,6 +41698,7 @@
           <t>STRAT_1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2">
         <f>RANK(B2,B2:B6)</f>
         <v/>
@@ -41717,6 +41714,7 @@
           <t>STRAT_2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3">
         <f>RANK(B3,B2:B6)</f>
         <v/>
@@ -41732,6 +41730,7 @@
           <t>STRAT_3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4">
         <f>RANK(B4,B2:B6)</f>
         <v/>
@@ -41747,6 +41746,7 @@
           <t>STRAT_4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5">
         <f>RANK(B5,B2:B6)</f>
         <v/>
@@ -41762,6 +41762,7 @@
           <t>STRAT_5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6">
         <f>RANK(B6,B2:B6)</f>
         <v/>
@@ -41813,888 +41814,11 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2">
         <f>IF(AND(B2="ALLOW",C2="YES",A2&gt;0.6),"EXECUTE","STAND_BY")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RISK_PER_TRADE</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1.2% sweet spot</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HARD_RISK_CAP</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>absolute max</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MAX_POSITION_CAP</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>25% equity cap</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MAX_TRADES_PER_DAY</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>overtrading shield</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MAX_CONCURRENT_TRADES</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>correlation control</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI_CONFIDENCE_BUY_MIN</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI_CONFIDENCE_SELL_MIN</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI_CONFIDENCE_STRONG</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TREND_SCORE_MIN</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>VOLATILITY_STATE_BLOCK_LOW</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>VOLUME_ZSCORE_MIN</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>VWAP_REQUIRED</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>HTF_CONFIRMATION</t>
-        </is>
-      </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>PRO BOOST MTF filter</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HTF_TIMEFRAME</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1h</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Higher timeframe bias</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>HTF_TREND_MIN</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>HTF trend gate</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELITE_ZONE</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>High confidence zone</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>VOL_EXPANSION_BONUS</t>
-        </is>
-      </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Volatility expansion filter</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ATR_EXPANSION_MIN</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ATR expansion threshold</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SIZE_BOOST_ELITE</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Elite size boost</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>STOP_MODEL</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ATR_STRUCTURE_HYBRID</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ATR_PERIOD</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ATR_MULTIPLIER</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>STRUCTURE_LOOKBACK</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>VWAP_INVALIDATION</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>STOP_DISTANCE_FORMULA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <f>IFERROR(MAX(ATR_VALUE*ATR_MULTIPLIER,STRUCTURE_STOP_DISTANCE,VWAP_INVALIDATION_DISTANCE),0)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>POSITION_MODEL</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>VOLATILITY_ADJUSTED</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BASE_RISK</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SIZE_SMOOTHING</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MIN_NOTIONAL_FILTER</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>POSITION_SIZE_FORMULA</t>
-        </is>
-      </c>
-      <c r="B6">
-        <f>IFERROR((Account_Equity*RISK_PER_TRADE)/Stop_Distance,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>POSITION_CLAMP_FORMULA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <f>MIN(Calculated_Position,Account_Equity*MAX_POSITION_CAP)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TP_MODEL</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PARTIAL_LADDER</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MIN_RR</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TP1_R</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TP2_R</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RUNNER_MODE</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TRAILING_ATR</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TP1_SIZE</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TP2_SIZE</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RUNNER_SIZE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DAILY_DD_STOP</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EQUITY_KILL</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MAX_CONSECUTIVE_LOSSES</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LOSS_COOLDOWN_MIN</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DAILY_DD_FORMULA</t>
-        </is>
-      </c>
-      <c r="B6">
-        <f>IF(Daily_Return&lt;=DAILY_DD_STOP,"PAUSE","OK")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>LOSS_STREAK_FORMULA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <f>IF(Consecutive_Losses&gt;=MAX_CONSECUTIVE_LOSSES,"PAUSE","OK")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Formula</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BUY_FIREWALL</t>
-        </is>
-      </c>
-      <c r="B2">
-        <f>AND(AI_SCORE&gt;=AI_CONFIDENCE_BUY_MIN,TREND_SCORE&gt;=TREND_SCORE_MIN,VOL_STATE&lt;&gt;"LOW",VOLUME_Z&gt;=VOLUME_ZSCORE_MIN,PRICE_VS_VWAP="FAVORABLE",DAILY_KILL&lt;&gt;"PAUSE",LOSS_GUARD&lt;&gt;"PAUSE")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SELL_FIREWALL</t>
-        </is>
-      </c>
-      <c r="B3">
-        <f>AND(AI_SCORE&gt;=AI_CONFIDENCE_SELL_MIN,STRUCTURE_OK=TRUE,PRICE_BELOW_VWAP=TRUE)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CONFIG_KEY</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CONFIG_SHEET</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>LOOKUP_FORMULA</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RISK_PER_TRADE</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CONFIG_CORE</t>
-        </is>
-      </c>
-      <c r="C2">
-        <f>VLOOKUP(A2,CONFIG_CORE!A:B,2,FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HARD_RISK_CAP</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CONFIG_CORE</t>
-        </is>
-      </c>
-      <c r="C3">
-        <f>VLOOKUP(A3,CONFIG_CORE!A:B,2,FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MAX_POSITION_CAP</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CONFIG_CORE</t>
-        </is>
-      </c>
-      <c r="C4">
-        <f>VLOOKUP(A4,CONFIG_CORE!A:B,2,FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MAX_TRADES_PER_DAY</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CONFIG_CORE</t>
-        </is>
-      </c>
-      <c r="C5">
-        <f>VLOOKUP(A5,CONFIG_CORE!A:B,2,FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI_CONFIDENCE_BUY_MIN</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CONFIG_CORE</t>
-        </is>
-      </c>
-      <c r="C6">
-        <f>VLOOKUP(A6,CONFIG_CORE!A:B,2,FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI_CONFIDENCE_SELL_MIN</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CONFIG_CORE</t>
-        </is>
-      </c>
-      <c r="C7">
-        <f>VLOOKUP(A7,CONFIG_CORE!A:B,2,FALSE)</f>
         <v/>
       </c>
     </row>
